--- a/phân chia công việc_ QLNS.xlsx
+++ b/phân chia công việc_ QLNS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\QUAN-LY-NHAN-SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="8"/>
     </row>

--- a/phân chia công việc_ QLNS.xlsx
+++ b/phân chia công việc_ QLNS.xlsx
@@ -59,12 +59,6 @@
     <t>Xây dựng module sửa nhân sự</t>
   </si>
   <si>
-    <t>Xây dựng module xóa nhân sự</t>
-  </si>
-  <si>
-    <t>Xây dựng module tìm kiếm nhân sự</t>
-  </si>
-  <si>
     <t>Xây dựng module hướng dẫn sử dụng phần mềm (menu Help, F1) chi tiết đến từng chức năng</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>Xây dựng from chính cho chương trình</t>
+  </si>
+  <si>
+    <t>Xây dựng module xóa và tìm kiếm nhân sự</t>
+  </si>
+  <si>
+    <t>Xây dựng module Phiếu Lương</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="C5:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -546,10 +546,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -562,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -603,11 +603,11 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -617,11 +617,11 @@
         <v>1.6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -631,11 +631,11 @@
         <v>1.7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -645,11 +645,11 @@
         <v>1.8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -659,25 +659,25 @@
         <v>1.9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="8"/>
     </row>

--- a/phân chia công việc_ QLNS.xlsx
+++ b/phân chia công việc_ QLNS.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/phân chia công việc_ QLNS.xlsx
+++ b/phân chia công việc_ QLNS.xlsx
@@ -53,12 +53,6 @@
     <t>Thiết kế giao diện cửa sổ chính (màn hình đăng nhập, các menu trỏ đến các module con,…). Xây dựng module quản lý người dùng</t>
   </si>
   <si>
-    <t>Xây dựng module thêm nhân sự mới</t>
-  </si>
-  <si>
-    <t>Xây dựng module sửa nhân sự</t>
-  </si>
-  <si>
     <t>Xây dựng module hướng dẫn sử dụng phần mềm (menu Help, F1) chi tiết đến từng chức năng</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>Xây dựng module Phiếu Lương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng module thêm nhân sự mới, module sửa nhân sự </t>
+  </si>
+  <si>
+    <t>Xây dựng module khen thưởng cho nhan viên</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -546,10 +546,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -562,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -575,11 +575,11 @@
         <v>1.3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -589,11 +589,11 @@
         <v>1.4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -603,11 +603,11 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -617,11 +617,11 @@
         <v>1.6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -631,11 +631,11 @@
         <v>1.7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -645,11 +645,11 @@
         <v>1.8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -659,25 +659,25 @@
         <v>1.9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16" s="8"/>
     </row>
